--- a/data/trans_orig/P1404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{017B19D3-F125-48A4-847E-B040579D2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF7BD2C-40CA-4B04-BF24-6AD814279F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D10A0AE1-6CB6-4E3C-9908-1CF00CAE0F3D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{233EDB9C-9D0C-42D7-98CC-735C53ECC1E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="466">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,25 +98,25 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>8,89%</t>
+    <t>8,59%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,7 +125,7 @@
     <t>96,24%</t>
   </si>
   <si>
-    <t>91,11%</t>
+    <t>91,41%</t>
   </si>
   <si>
     <t>99,07%</t>
@@ -134,1339 +134,1309 @@
     <t>90,5%</t>
   </si>
   <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
     <t>84,89%</t>
   </si>
   <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>84,42%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
   </si>
 </sst>
 </file>
@@ -1878,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44105A06-A0A2-45D4-A815-1E8758F6EEB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E8C90E-6406-47EF-8261-931CF94A48F2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2913,7 +2883,7 @@
         <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2898,13 @@
         <v>864931</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>909</v>
@@ -2943,13 +2913,13 @@
         <v>943836</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1816</v>
@@ -2958,13 +2928,13 @@
         <v>1808766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3008,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3053,7 +3023,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3068,7 +3038,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3053,13 @@
         <v>259712</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>335</v>
@@ -3098,13 +3068,13 @@
         <v>348181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>602</v>
@@ -3116,10 +3086,10 @@
         <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3104,13 @@
         <v>3016832</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>2962</v>
@@ -3149,28 +3119,28 @@
         <v>3031017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>5909</v>
       </c>
       <c r="N26" s="7">
-        <v>6047847</v>
+        <v>6047848</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,7 +3182,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -3226,7 +3196,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3247,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC661F4-95A4-4C3E-A28A-170B9DC6591E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC945AD-3640-4574-BC68-215F7D3CB5A7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3264,7 +3234,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3377,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3392,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3407,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3392,13 @@
         <v>15731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -3437,13 +3407,13 @@
         <v>20517</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -3452,13 +3422,13 @@
         <v>36248</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3443,13 @@
         <v>100034</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H6" s="7">
         <v>80</v>
@@ -3488,13 +3458,13 @@
         <v>91388</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M6" s="7">
         <v>185</v>
@@ -3503,13 +3473,13 @@
         <v>191422</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3598,7 +3568,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3628,13 +3598,13 @@
         <v>75988</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H9" s="7">
         <v>80</v>
@@ -3643,13 +3613,13 @@
         <v>84726</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M9" s="7">
         <v>149</v>
@@ -3658,13 +3628,13 @@
         <v>160714</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3649,13 @@
         <v>511716</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>471</v>
@@ -3694,13 +3664,13 @@
         <v>500419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>954</v>
@@ -3709,13 +3679,13 @@
         <v>1012135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3804,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3834,13 +3804,13 @@
         <v>114946</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -3849,13 +3819,13 @@
         <v>144517</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>234</v>
@@ -3864,13 +3834,13 @@
         <v>259463</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3855,13 @@
         <v>903001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>808</v>
@@ -3900,13 +3870,13 @@
         <v>884456</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>1640</v>
@@ -3915,13 +3885,13 @@
         <v>1787457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4040,13 +4010,13 @@
         <v>76227</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -4055,13 +4025,13 @@
         <v>99562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -4070,13 +4040,13 @@
         <v>175790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4061,13 @@
         <v>679988</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="H18" s="7">
         <v>616</v>
@@ -4106,13 +4076,13 @@
         <v>677612</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M18" s="7">
         <v>1240</v>
@@ -4121,13 +4091,13 @@
         <v>1357599</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4216,13 @@
         <v>105781</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H21" s="7">
         <v>134</v>
@@ -4261,13 +4231,13 @@
         <v>141517</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M21" s="7">
         <v>230</v>
@@ -4276,13 +4246,13 @@
         <v>247298</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4267,13 @@
         <v>841958</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H22" s="7">
         <v>869</v>
@@ -4312,13 +4282,13 @@
         <v>910384</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M22" s="7">
         <v>1683</v>
@@ -4327,13 +4297,13 @@
         <v>1752342</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4422,7 +4392,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4437,7 +4407,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4422,13 @@
         <v>388674</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H25" s="7">
         <v>452</v>
@@ -4467,13 +4437,13 @@
         <v>490840</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>802</v>
@@ -4482,13 +4452,13 @@
         <v>879514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4473,13 @@
         <v>3036696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>2844</v>
@@ -4518,13 +4488,13 @@
         <v>3064258</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M26" s="7">
         <v>5702</v>
@@ -4533,13 +4503,13 @@
         <v>6100955</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4565,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4616,7 +4586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C626DD-859A-450E-827F-9A23B3DE9B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16423C89-A7D5-404D-A416-79C45ABD55A6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4633,7 +4603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4746,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4761,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4776,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4761,13 @@
         <v>17108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -4806,13 +4776,13 @@
         <v>11232</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -4821,13 +4791,13 @@
         <v>28340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +4812,13 @@
         <v>99438</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="H6" s="7">
         <v>104</v>
@@ -4857,13 +4827,13 @@
         <v>102128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M6" s="7">
         <v>200</v>
@@ -4872,13 +4842,13 @@
         <v>201566</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4967,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4982,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4967,13 @@
         <v>66769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -5012,13 +4982,13 @@
         <v>90848</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M9" s="7">
         <v>153</v>
@@ -5027,13 +4997,13 @@
         <v>157617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5018,13 @@
         <v>491485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>465</v>
@@ -5063,13 +5033,13 @@
         <v>468631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>937</v>
@@ -5078,13 +5048,13 @@
         <v>960116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,7 +5128,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5173,7 +5143,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5203,13 +5173,13 @@
         <v>122623</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -5218,13 +5188,13 @@
         <v>153251</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -5233,13 +5203,13 @@
         <v>275874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5224,13 @@
         <v>899808</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>844</v>
@@ -5269,13 +5239,13 @@
         <v>889662</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>1678</v>
@@ -5284,13 +5254,13 @@
         <v>1789470</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,7 +5349,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5394,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5379,13 @@
         <v>94697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -5424,13 +5394,13 @@
         <v>87700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -5439,13 +5409,13 @@
         <v>182397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5430,13 @@
         <v>664855</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>660</v>
@@ -5481,7 +5451,7 @@
         <v>320</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>1265</v>
@@ -5490,13 +5460,13 @@
         <v>1362166</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5555,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5615,13 +5585,13 @@
         <v>87601</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="H21" s="7">
         <v>105</v>
@@ -5630,13 +5600,13 @@
         <v>126307</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M21" s="7">
         <v>194</v>
@@ -5645,13 +5615,13 @@
         <v>213908</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5636,13 @@
         <v>849966</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>332</v>
       </c>
       <c r="H22" s="7">
         <v>854</v>
@@ -5681,13 +5651,13 @@
         <v>917472</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M22" s="7">
         <v>1697</v>
@@ -5696,13 +5666,13 @@
         <v>1767438</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,7 +5746,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5791,7 +5761,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5806,7 +5776,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5791,13 @@
         <v>388798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>221</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H25" s="7">
         <v>411</v>
@@ -5836,13 +5806,13 @@
         <v>469338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>792</v>
@@ -5851,13 +5821,13 @@
         <v>858136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5842,13 @@
         <v>3005552</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>2927</v>
@@ -5887,13 +5857,13 @@
         <v>3075204</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>198</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>5777</v>
@@ -5902,13 +5872,13 @@
         <v>6080756</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,7 +5934,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5985,7 +5955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AB5151-A7D6-4A85-97CD-2B14FA1AD43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7AC0D5-1553-4AFC-A288-773BBDDFC741}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6002,7 +5972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6115,7 +6085,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6130,7 +6100,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6145,7 +6115,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6130,13 @@
         <v>17216</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>59</v>
@@ -6175,13 +6145,13 @@
         <v>24634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>82</v>
@@ -6190,13 +6160,13 @@
         <v>41850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6211,13 +6181,13 @@
         <v>84766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H6" s="7">
         <v>183</v>
@@ -6226,13 +6196,13 @@
         <v>105520</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>278</v>
@@ -6241,13 +6211,13 @@
         <v>190286</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,7 +6291,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6330,13 +6300,13 @@
         <v>27412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -6345,13 +6315,13 @@
         <v>27412</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6336,13 @@
         <v>82361</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H9" s="7">
         <v>215</v>
@@ -6381,13 +6351,13 @@
         <v>103013</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>255</v>
+        <v>382</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M9" s="7">
         <v>332</v>
@@ -6396,13 +6366,13 @@
         <v>185374</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6387,13 @@
         <v>466878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>780</v>
@@ -6432,13 +6402,13 @@
         <v>489542</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>1274</v>
@@ -6447,13 +6417,13 @@
         <v>956420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6497,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6536,13 +6506,13 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -6551,13 +6521,13 @@
         <v>1323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6542,13 @@
         <v>141593</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>398</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H13" s="7">
         <v>298</v>
@@ -6587,13 +6557,13 @@
         <v>164784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M13" s="7">
         <v>479</v>
@@ -6602,13 +6572,13 @@
         <v>306377</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6593,13 @@
         <v>895480</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>407</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>1213</v>
@@ -6638,13 +6608,13 @@
         <v>891576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>1994</v>
@@ -6653,13 +6623,13 @@
         <v>1787054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,7 +6703,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6748,7 +6718,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6778,13 +6748,13 @@
         <v>113894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>420</v>
+        <v>341</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>165</v>
@@ -6793,13 +6763,13 @@
         <v>214584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>293</v>
@@ -6808,13 +6778,13 @@
         <v>328477</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6799,13 @@
         <v>609896</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>230</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="H18" s="7">
         <v>878</v>
@@ -6844,13 +6814,13 @@
         <v>658116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>1421</v>
@@ -6859,13 +6829,13 @@
         <v>1268013</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6948,13 +6918,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6963,13 +6933,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,13 +6954,13 @@
         <v>138458</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>438</v>
+        <v>362</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H21" s="7">
         <v>336</v>
@@ -6999,13 +6969,13 @@
         <v>207920</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="M21" s="7">
         <v>515</v>
@@ -7014,13 +6984,13 @@
         <v>346378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>445</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,13 +7005,13 @@
         <v>826172</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>447</v>
+        <v>372</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
         <v>1222</v>
@@ -7050,13 +7020,13 @@
         <v>937908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>2048</v>
@@ -7065,13 +7035,13 @@
         <v>1764080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,7 +7115,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -7157,10 +7127,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7169,13 +7139,13 @@
         <v>31497</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>457</v>
+        <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7160,13 @@
         <v>493522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>460</v>
+        <v>242</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>1073</v>
@@ -7205,13 +7175,13 @@
         <v>714935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>1701</v>
@@ -7220,13 +7190,13 @@
         <v>1208457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7211,13 @@
         <v>2883192</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>469</v>
+        <v>250</v>
       </c>
       <c r="H26" s="7">
         <v>4276</v>
@@ -7256,13 +7226,13 @@
         <v>3082661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>7015</v>
@@ -7271,13 +7241,13 @@
         <v>5965853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,7 +7303,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF7BD2C-40CA-4B04-BF24-6AD814279F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9255FF47-0C14-468C-BB96-7D2E70A9CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{233EDB9C-9D0C-42D7-98CC-735C53ECC1E6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A46BBAF2-0E98-48EF-95D5-44D00CABABA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="472">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida</t>
@@ -98,1327 +98,1345 @@
     <t>0,93%</t>
   </si>
   <si>
-    <t>8,59%</t>
+    <t>9,53%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>3,91%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
   </si>
   <si>
     <t>89,7%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>88,64%</t>
   </si>
   <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>11,81%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>88,19%</t>
   </si>
   <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>12,64%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
   </si>
   <si>
     <t>87,36%</t>
   </si>
   <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>38,91%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>86,6%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
   </si>
   <si>
     <t>80,51%</t>
@@ -1848,7 +1866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E8C90E-6406-47EF-8261-931CF94A48F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1511F962-152D-4691-AF0F-81C7C7DC7F9E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3068,13 +3086,13 @@
         <v>348181</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>602</v>
@@ -3086,7 +3104,7 @@
         <v>108</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>131</v>
@@ -3101,7 +3119,7 @@
         <v>2947</v>
       </c>
       <c r="D26" s="7">
-        <v>3016832</v>
+        <v>3016831</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>132</v>
@@ -3119,13 +3137,13 @@
         <v>3031017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>5909</v>
@@ -3137,10 +3155,10 @@
         <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3170,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -3217,7 +3235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC945AD-3640-4574-BC68-215F7D3CB5A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D3D3B1-1F6E-4BA1-BDDF-F2D64FA0065E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3810,7 +3828,7 @@
         <v>183</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>130</v>
@@ -3819,13 +3837,13 @@
         <v>144517</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M13" s="7">
         <v>234</v>
@@ -3834,13 +3852,13 @@
         <v>259463</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3873,13 @@
         <v>903001</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>808</v>
@@ -3870,13 +3888,13 @@
         <v>884456</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>1640</v>
@@ -3885,13 +3903,13 @@
         <v>1787457</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,7 +3998,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4010,13 +4028,13 @@
         <v>76227</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
@@ -4025,13 +4043,13 @@
         <v>99562</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>153</v>
@@ -4040,13 +4058,13 @@
         <v>175790</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4079,13 @@
         <v>679988</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H18" s="7">
         <v>616</v>
@@ -4437,13 +4455,13 @@
         <v>490840</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>802</v>
@@ -4452,13 +4470,13 @@
         <v>879514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4491,13 @@
         <v>3036696</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H26" s="7">
         <v>2844</v>
@@ -4488,13 +4506,13 @@
         <v>3064258</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M26" s="7">
         <v>5702</v>
@@ -4503,13 +4521,13 @@
         <v>6100955</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,7 +4604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16423C89-A7D5-404D-A416-79C45ABD55A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B15327F-47F6-49DB-8D35-CAF13E3AEC9B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4603,7 +4621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4716,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4731,7 +4749,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4746,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4779,13 @@
         <v>17108</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -4776,13 +4794,13 @@
         <v>11232</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -4791,13 +4809,13 @@
         <v>28340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4830,13 @@
         <v>99438</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>104</v>
@@ -4827,13 +4845,13 @@
         <v>102128</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M6" s="7">
         <v>200</v>
@@ -4842,13 +4860,13 @@
         <v>201566</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,7 +4940,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4952,7 +4970,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4985,13 @@
         <v>66769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>86</v>
@@ -4982,13 +5000,13 @@
         <v>90848</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>153</v>
@@ -4997,13 +5015,13 @@
         <v>157617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5036,13 @@
         <v>491485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>465</v>
@@ -5033,13 +5051,13 @@
         <v>468631</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>937</v>
@@ -5048,13 +5066,13 @@
         <v>960116</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5191,13 @@
         <v>122623</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>133</v>
@@ -5188,13 +5206,13 @@
         <v>153251</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>250</v>
@@ -5203,13 +5221,13 @@
         <v>275874</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5242,13 @@
         <v>899808</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>844</v>
@@ -5239,13 +5257,13 @@
         <v>889662</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>1678</v>
@@ -5254,13 +5272,13 @@
         <v>1789470</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5367,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5364,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5397,13 @@
         <v>94697</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -5394,13 +5412,13 @@
         <v>87700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -5409,13 +5427,13 @@
         <v>182397</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5448,13 @@
         <v>664855</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="H18" s="7">
         <v>660</v>
@@ -5445,10 +5463,10 @@
         <v>697311</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>133</v>
@@ -5460,7 +5478,7 @@
         <v>1362166</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>321</v>
@@ -5585,13 +5603,13 @@
         <v>87601</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="H21" s="7">
         <v>105</v>
@@ -5600,13 +5618,13 @@
         <v>126307</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M21" s="7">
         <v>194</v>
@@ -5615,13 +5633,13 @@
         <v>213908</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5654,13 @@
         <v>849966</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>854</v>
@@ -5651,13 +5669,13 @@
         <v>917472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>1697</v>
@@ -5666,13 +5684,13 @@
         <v>1767438</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5809,13 @@
         <v>388798</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>221</v>
+        <v>335</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H25" s="7">
         <v>411</v>
@@ -5806,13 +5824,13 @@
         <v>469338</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>190</v>
+        <v>340</v>
       </c>
       <c r="M25" s="7">
         <v>792</v>
@@ -5824,10 +5842,10 @@
         <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5860,13 @@
         <v>3005552</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>343</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H26" s="7">
         <v>2927</v>
@@ -5857,10 +5875,10 @@
         <v>3075204</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>348</v>
@@ -5955,7 +5973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7AC0D5-1553-4AFC-A288-773BBDDFC741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671B7CBB-A826-419E-954B-58E3374C4DAA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6339,7 +6357,7 @@
         <v>380</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>381</v>
@@ -6393,7 +6411,7 @@
         <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>780</v>
@@ -6506,7 +6524,7 @@
         <v>1323</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
@@ -6578,7 +6596,7 @@
         <v>405</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>406</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6611,13 @@
         <v>895480</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H14" s="7">
         <v>1213</v>
@@ -6608,13 +6626,13 @@
         <v>891576</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M14" s="7">
         <v>1994</v>
@@ -6623,13 +6641,13 @@
         <v>1787054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6703,7 +6721,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6718,7 +6736,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6748,10 +6766,10 @@
         <v>113894</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>415</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>416</v>
@@ -6781,10 +6799,10 @@
         <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,13 +6817,13 @@
         <v>609896</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>230</v>
+        <v>423</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H18" s="7">
         <v>878</v>
@@ -6814,13 +6832,13 @@
         <v>658116</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M18" s="7">
         <v>1421</v>
@@ -6829,13 +6847,13 @@
         <v>1268013</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6936,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -6933,13 +6951,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,10 +6975,10 @@
         <v>362</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H21" s="7">
         <v>336</v>
@@ -6969,13 +6987,13 @@
         <v>207920</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M21" s="7">
         <v>515</v>
@@ -6984,13 +7002,13 @@
         <v>346378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>276</v>
+        <v>440</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,10 +7026,10 @@
         <v>372</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>1222</v>
@@ -7020,13 +7038,13 @@
         <v>937908</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>2048</v>
@@ -7035,13 +7053,13 @@
         <v>1764080</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,10 +7145,10 @@
         <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7142,10 +7160,10 @@
         <v>396</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7178,13 @@
         <v>493522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>242</v>
+        <v>455</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H25" s="7">
         <v>1073</v>
@@ -7175,13 +7193,13 @@
         <v>714935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>1701</v>
@@ -7190,13 +7208,13 @@
         <v>1208457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7229,13 @@
         <v>2883192</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="H26" s="7">
         <v>4276</v>
@@ -7226,13 +7244,13 @@
         <v>3082661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>7015</v>
@@ -7241,13 +7259,13 @@
         <v>5965853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1404-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1404-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B81E9B7-642C-4F7A-97EA-81D53A9A4E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{256D241E-9D92-4F98-9345-FC46372EB673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93C067EB-481D-4605-85A9-8A6144081978}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E0E933CF-3F55-4F67-8ACE-BCA0583651C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="356">
   <si>
     <t>Población con diagnóstico de colesterol alto en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,891 +68,744 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>92,39%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colesterol alto en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
     <t>87,9%</t>
   </si>
   <si>
@@ -1022,292 +875,238 @@
     <t>Población con diagnóstico de colesterol alto en 2023 (Tasa respuesta: 99,69%)</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
   </si>
 </sst>
 </file>
@@ -1719,8 +1518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0536F1F5-38EE-468F-B961-3E2C8FD83CC1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575323A0-5E67-4576-A41A-1B5682EBEA49}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1837,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>4339</v>
+        <v>46411</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1852,10 +1651,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I4" s="7">
-        <v>10715</v>
+        <v>68698</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1867,10 +1666,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="N4" s="7">
-        <v>15053</v>
+        <v>115109</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1888,10 +1687,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>101</v>
+        <v>636</v>
       </c>
       <c r="D5" s="7">
-        <v>111019</v>
+        <v>647601</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1903,10 +1702,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>116</v>
+        <v>627</v>
       </c>
       <c r="I5" s="7">
-        <v>102040</v>
+        <v>619653</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1918,10 +1717,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>217</v>
+        <v>1263</v>
       </c>
       <c r="N5" s="7">
-        <v>213060</v>
+        <v>1267254</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1939,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1954,10 +1753,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1969,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1992,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>42072</v>
+        <v>85923</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2007,10 +1806,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="I7" s="7">
-        <v>57984</v>
+        <v>110548</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2022,10 +1821,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="N7" s="7">
-        <v>100056</v>
+        <v>196471</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2043,10 +1842,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>535</v>
+        <v>813</v>
       </c>
       <c r="D8" s="7">
-        <v>536582</v>
+        <v>875877</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2058,10 +1857,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>511</v>
+        <v>806</v>
       </c>
       <c r="I8" s="7">
-        <v>517612</v>
+        <v>857845</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2073,10 +1872,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1046</v>
+        <v>1619</v>
       </c>
       <c r="N8" s="7">
-        <v>1054194</v>
+        <v>1733722</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2094,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2109,10 +1908,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2124,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2147,10 +1946,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>85923</v>
+        <v>50086</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2162,10 +1961,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>110548</v>
+        <v>74159</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2177,10 +1976,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="N10" s="7">
-        <v>196471</v>
+        <v>124245</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2198,10 +1997,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>813</v>
+        <v>591</v>
       </c>
       <c r="D11" s="7">
-        <v>875877</v>
+        <v>628423</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2213,10 +2012,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>806</v>
+        <v>620</v>
       </c>
       <c r="I11" s="7">
-        <v>857845</v>
+        <v>609682</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2228,10 +2027,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1619</v>
+        <v>1211</v>
       </c>
       <c r="N11" s="7">
-        <v>1733722</v>
+        <v>1238105</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2249,10 +2048,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2264,10 +2063,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2279,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2302,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>50086</v>
+        <v>77291</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2317,10 +2116,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I13" s="7">
-        <v>74159</v>
+        <v>94776</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2332,10 +2131,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="N13" s="7">
-        <v>124245</v>
+        <v>172068</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2344,7 +2143,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,49 +2152,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>591</v>
+        <v>907</v>
       </c>
       <c r="D14" s="7">
-        <v>628423</v>
+        <v>864931</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>909</v>
+      </c>
+      <c r="I14" s="7">
+        <v>943836</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>620</v>
-      </c>
-      <c r="I14" s="7">
-        <v>609682</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1816</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1808766</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1211</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1238105</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2419,10 +2218,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2434,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2451,55 +2250,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>267</v>
+      </c>
+      <c r="D16" s="7">
+        <v>259712</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="7">
-        <v>77291</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="7">
+        <v>335</v>
+      </c>
+      <c r="I16" s="7">
+        <v>348181</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>602</v>
+      </c>
+      <c r="N16" s="7">
+        <v>607893</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>88</v>
-      </c>
-      <c r="I16" s="7">
-        <v>94776</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>175</v>
-      </c>
-      <c r="N16" s="7">
-        <v>172068</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,49 +2307,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>907</v>
+        <v>2947</v>
       </c>
       <c r="D17" s="7">
-        <v>864931</v>
+        <v>3016831</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2962</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3031016</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7">
-        <v>909</v>
-      </c>
-      <c r="I17" s="7">
-        <v>943836</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="M17" s="7">
-        <v>1816</v>
+        <v>5909</v>
       </c>
       <c r="N17" s="7">
-        <v>1808766</v>
+        <v>6047848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2574,10 +2373,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2589,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2605,171 +2404,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>267</v>
-      </c>
-      <c r="D19" s="7">
-        <v>259712</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="7">
-        <v>335</v>
-      </c>
-      <c r="I19" s="7">
-        <v>348181</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M19" s="7">
-        <v>602</v>
-      </c>
-      <c r="N19" s="7">
-        <v>607893</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2947</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3016832</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2962</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3031017</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5909</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6047847</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2782,8 +2425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA39D1E-9E17-453E-B33A-559EE54149CF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE449322-4054-407D-BDF0-362B2BA6C984}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2799,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2900,49 +2543,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7">
-        <v>15731</v>
+        <v>91719</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="I4" s="7">
-        <v>20517</v>
+        <v>105243</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="N4" s="7">
-        <v>36248</v>
+        <v>196962</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,49 +2594,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>588</v>
       </c>
       <c r="D5" s="7">
-        <v>100034</v>
+        <v>611750</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="I5" s="7">
-        <v>91388</v>
+        <v>591807</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>185</v>
+        <v>1139</v>
       </c>
       <c r="N5" s="7">
-        <v>191422</v>
+        <v>1203557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3017,10 +2660,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3032,10 +2675,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3055,49 +2698,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D7" s="7">
-        <v>75988</v>
+        <v>114946</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="I7" s="7">
-        <v>84726</v>
+        <v>144517</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="N7" s="7">
-        <v>160714</v>
+        <v>259463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,49 +2749,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>483</v>
+        <v>832</v>
       </c>
       <c r="D8" s="7">
-        <v>511716</v>
+        <v>903001</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>471</v>
+        <v>808</v>
       </c>
       <c r="I8" s="7">
-        <v>500419</v>
+        <v>884456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>954</v>
+        <v>1640</v>
       </c>
       <c r="N8" s="7">
-        <v>1012135</v>
+        <v>1787458</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3172,10 +2815,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1028973</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3187,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1874</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2046921</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3210,49 +2853,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>114946</v>
+        <v>76227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="I10" s="7">
-        <v>144517</v>
+        <v>99562</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="N10" s="7">
-        <v>259463</v>
+        <v>175790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,49 +2904,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>832</v>
+        <v>624</v>
       </c>
       <c r="D11" s="7">
-        <v>903001</v>
+        <v>679988</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>808</v>
+        <v>616</v>
       </c>
       <c r="I11" s="7">
-        <v>884456</v>
+        <v>677612</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1640</v>
+        <v>1240</v>
       </c>
       <c r="N11" s="7">
-        <v>1787457</v>
+        <v>1357599</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,10 +2955,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756215</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3327,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1028973</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3342,10 +2985,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1874</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2046920</v>
+        <v>1533389</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3365,49 +3008,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D13" s="7">
-        <v>76227</v>
+        <v>105781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="I13" s="7">
-        <v>99562</v>
+        <v>141517</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="N13" s="7">
-        <v>175790</v>
+        <v>247298</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,49 +3059,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>624</v>
+        <v>814</v>
       </c>
       <c r="D14" s="7">
-        <v>679988</v>
+        <v>841958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>616</v>
+        <v>869</v>
       </c>
       <c r="I14" s="7">
-        <v>677612</v>
+        <v>910384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>1240</v>
+        <v>1683</v>
       </c>
       <c r="N14" s="7">
-        <v>1357599</v>
+        <v>1752342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>756215</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3482,10 +3125,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3497,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1533389</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3514,55 +3157,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>96</v>
+        <v>350</v>
       </c>
       <c r="D16" s="7">
-        <v>105781</v>
+        <v>388674</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>134</v>
+        <v>452</v>
       </c>
       <c r="I16" s="7">
-        <v>141517</v>
+        <v>490840</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>230</v>
+        <v>802</v>
       </c>
       <c r="N16" s="7">
-        <v>247298</v>
+        <v>879514</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,49 +3214,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>814</v>
+        <v>2858</v>
       </c>
       <c r="D17" s="7">
-        <v>841958</v>
+        <v>3036696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>869</v>
+        <v>2844</v>
       </c>
       <c r="I17" s="7">
-        <v>910384</v>
+        <v>3064258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>1683</v>
+        <v>5702</v>
       </c>
       <c r="N17" s="7">
-        <v>1752342</v>
+        <v>6100955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3425370</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3637,10 +3280,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3555098</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3652,10 +3295,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6504</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6980469</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3668,171 +3311,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>350</v>
-      </c>
-      <c r="D19" s="7">
-        <v>388674</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="7">
-        <v>452</v>
-      </c>
-      <c r="I19" s="7">
-        <v>490840</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>802</v>
-      </c>
-      <c r="N19" s="7">
-        <v>879514</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2858</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3036696</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2844</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3064258</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5702</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6100955</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425370</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3555098</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6504</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6980469</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3845,8 +3332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264F7DEB-6E63-4C2E-AA67-B4B58CFF4DF6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2205AFF-B529-475B-ADD0-B21C3F76B676}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3862,7 +3349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,49 +3450,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7">
-        <v>17108</v>
+        <v>83877</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="I4" s="7">
-        <v>11232</v>
+        <v>102080</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="N4" s="7">
-        <v>28340</v>
+        <v>185957</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,49 +3501,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>96</v>
+        <v>568</v>
       </c>
       <c r="D5" s="7">
-        <v>99438</v>
+        <v>590923</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>104</v>
+        <v>569</v>
       </c>
       <c r="I5" s="7">
-        <v>102128</v>
+        <v>570759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>200</v>
+        <v>1137</v>
       </c>
       <c r="N5" s="7">
-        <v>201566</v>
+        <v>1161682</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,10 +3552,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4080,10 +3567,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4095,10 +3582,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4118,49 +3605,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D7" s="7">
-        <v>66769</v>
+        <v>122623</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="H7" s="7">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="I7" s="7">
-        <v>90848</v>
+        <v>153251</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
-        <v>153</v>
+        <v>250</v>
       </c>
       <c r="N7" s="7">
-        <v>157617</v>
+        <v>275874</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,49 +3656,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>472</v>
+        <v>834</v>
       </c>
       <c r="D8" s="7">
-        <v>491485</v>
+        <v>899808</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="H8" s="7">
-        <v>465</v>
+        <v>844</v>
       </c>
       <c r="I8" s="7">
-        <v>468631</v>
+        <v>889662</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>937</v>
+        <v>1678</v>
       </c>
       <c r="N8" s="7">
-        <v>960116</v>
+        <v>1789470</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4235,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4250,10 +3737,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4273,49 +3760,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7">
-        <v>122623</v>
+        <v>94697</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="I10" s="7">
-        <v>153251</v>
+        <v>87700</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>250</v>
+        <v>167</v>
       </c>
       <c r="N10" s="7">
-        <v>275874</v>
+        <v>182397</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,49 +3811,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>834</v>
+        <v>605</v>
       </c>
       <c r="D11" s="7">
-        <v>899808</v>
+        <v>664855</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>844</v>
+        <v>660</v>
       </c>
       <c r="I11" s="7">
-        <v>889662</v>
+        <v>697311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>1678</v>
+        <v>1265</v>
       </c>
       <c r="N11" s="7">
-        <v>1789470</v>
+        <v>1362166</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4390,10 +3877,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4405,10 +3892,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4428,49 +3915,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>94697</v>
+        <v>87601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7">
-        <v>87700</v>
+        <v>126307</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="N13" s="7">
-        <v>182397</v>
+        <v>213908</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,49 +3966,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>605</v>
+        <v>843</v>
       </c>
       <c r="D14" s="7">
-        <v>664855</v>
+        <v>849966</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>660</v>
+        <v>854</v>
       </c>
       <c r="I14" s="7">
-        <v>697311</v>
+        <v>917472</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>1265</v>
+        <v>1697</v>
       </c>
       <c r="N14" s="7">
-        <v>1362166</v>
+        <v>1767438</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4545,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4560,10 +4047,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4577,55 +4064,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>89</v>
+        <v>381</v>
       </c>
       <c r="D16" s="7">
-        <v>87601</v>
+        <v>388798</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>105</v>
+        <v>411</v>
       </c>
       <c r="I16" s="7">
-        <v>126307</v>
+        <v>469338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
-        <v>194</v>
+        <v>792</v>
       </c>
       <c r="N16" s="7">
-        <v>213908</v>
+        <v>858136</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,49 +4121,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>843</v>
+        <v>2850</v>
       </c>
       <c r="D17" s="7">
-        <v>849966</v>
+        <v>3005552</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
-        <v>854</v>
+        <v>2927</v>
       </c>
       <c r="I17" s="7">
-        <v>917472</v>
+        <v>3075204</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>1697</v>
+        <v>5777</v>
       </c>
       <c r="N17" s="7">
-        <v>1767438</v>
+        <v>6080756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4700,10 +4187,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4715,10 +4202,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4731,171 +4218,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>381</v>
-      </c>
-      <c r="D19" s="7">
-        <v>388798</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="7">
-        <v>411</v>
-      </c>
-      <c r="I19" s="7">
-        <v>469338</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M19" s="7">
-        <v>792</v>
-      </c>
-      <c r="N19" s="7">
-        <v>858136</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2850</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3005552</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2927</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3075204</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5777</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6080756</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4908,8 +4239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7461627-7736-41C9-BCFC-84C292A62177}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6E07DE-8E24-41DA-A517-C0C748D61DAD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4925,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5026,49 +4357,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="D4" s="7">
-        <v>17216</v>
+        <v>94653</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="I4" s="7">
-        <v>24634</v>
+        <v>118801</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="N4" s="7">
-        <v>41850</v>
+        <v>213454</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>285</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,49 +4408,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>589</v>
       </c>
       <c r="D5" s="7">
-        <v>84766</v>
+        <v>540239</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7">
-        <v>183</v>
+        <v>963</v>
       </c>
       <c r="I5" s="7">
-        <v>105520</v>
+        <v>556036</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
-        <v>278</v>
+        <v>1552</v>
       </c>
       <c r="N5" s="7">
-        <v>190286</v>
+        <v>1096275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,10 +4459,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634892</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5143,10 +4474,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130154</v>
+        <v>674837</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5158,10 +4489,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="7">
-        <v>232136</v>
+        <v>1309729</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5181,49 +4512,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D7" s="7">
-        <v>82361</v>
+        <v>132194</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="I7" s="7">
-        <v>103013</v>
+        <v>150594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
-        <v>332</v>
+        <v>479</v>
       </c>
       <c r="N7" s="7">
-        <v>185374</v>
+        <v>282787</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,49 +4563,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>494</v>
+        <v>781</v>
       </c>
       <c r="D8" s="7">
-        <v>466878</v>
+        <v>1058541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
-        <v>780</v>
+        <v>1213</v>
       </c>
       <c r="I8" s="7">
-        <v>489542</v>
+        <v>804688</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
-        <v>1274</v>
+        <v>1994</v>
       </c>
       <c r="N8" s="7">
-        <v>956420</v>
+        <v>1863230</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>962</v>
       </c>
       <c r="D9" s="7">
-        <v>549239</v>
+        <v>1190735</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5298,10 +4629,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1511</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>955282</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5313,10 +4644,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1606</v>
+        <v>2473</v>
       </c>
       <c r="N9" s="7">
-        <v>1141794</v>
+        <v>2146017</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5336,49 +4667,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>181</v>
+        <v>128</v>
       </c>
       <c r="D10" s="7">
-        <v>141593</v>
+        <v>107777</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
-        <v>298</v>
+        <v>165</v>
       </c>
       <c r="I10" s="7">
-        <v>164784</v>
+        <v>299899</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
-        <v>479</v>
+        <v>293</v>
       </c>
       <c r="N10" s="7">
-        <v>306377</v>
+        <v>407676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,49 +4718,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>781</v>
+        <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>895480</v>
+        <v>592277</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="H11" s="7">
-        <v>1213</v>
+        <v>878</v>
       </c>
       <c r="I11" s="7">
-        <v>891575</v>
+        <v>631940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>323</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="M11" s="7">
-        <v>1994</v>
+        <v>1421</v>
       </c>
       <c r="N11" s="7">
-        <v>1787055</v>
+        <v>1224217</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>962</v>
+        <v>671</v>
       </c>
       <c r="D12" s="7">
-        <v>1037073</v>
+        <v>700054</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5453,10 +4784,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1511</v>
+        <v>1043</v>
       </c>
       <c r="I12" s="7">
-        <v>1056359</v>
+        <v>931839</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5468,10 +4799,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2473</v>
+        <v>1714</v>
       </c>
       <c r="N12" s="7">
-        <v>2093432</v>
+        <v>1631893</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5491,49 +4822,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="D13" s="7">
-        <v>113894</v>
+        <v>130027</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>123</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
-        <v>165</v>
+        <v>336</v>
       </c>
       <c r="I13" s="7">
-        <v>214584</v>
+        <v>187025</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
-        <v>293</v>
+        <v>515</v>
       </c>
       <c r="N13" s="7">
-        <v>328477</v>
+        <v>317052</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,49 +4873,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>543</v>
+        <v>826</v>
       </c>
       <c r="D14" s="7">
-        <v>609896</v>
+        <v>796071</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
-        <v>878</v>
+        <v>1222</v>
       </c>
       <c r="I14" s="7">
-        <v>658116</v>
+        <v>903872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
-        <v>1421</v>
+        <v>2048</v>
       </c>
       <c r="N14" s="7">
-        <v>1268013</v>
+        <v>1699943</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,10 +4924,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>671</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>723790</v>
+        <v>926098</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5608,10 +4939,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1043</v>
+        <v>1558</v>
       </c>
       <c r="I15" s="7">
-        <v>872700</v>
+        <v>1090897</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5623,10 +4954,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1714</v>
+        <v>2563</v>
       </c>
       <c r="N15" s="7">
-        <v>1596490</v>
+        <v>2016995</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5640,55 +4971,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>179</v>
+        <v>628</v>
       </c>
       <c r="D16" s="7">
-        <v>138458</v>
+        <v>464651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
-        <v>336</v>
+        <v>1073</v>
       </c>
       <c r="I16" s="7">
-        <v>207920</v>
+        <v>756318</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="M16" s="7">
-        <v>515</v>
+        <v>1701</v>
       </c>
       <c r="N16" s="7">
-        <v>346378</v>
+        <v>1220969</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,49 +5028,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>826</v>
+        <v>2739</v>
       </c>
       <c r="D17" s="7">
-        <v>826172</v>
+        <v>2987129</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="H17" s="7">
-        <v>1222</v>
+        <v>4276</v>
       </c>
       <c r="I17" s="7">
-        <v>937908</v>
+        <v>2896537</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
-        <v>2048</v>
+        <v>7015</v>
       </c>
       <c r="N17" s="7">
-        <v>1764080</v>
+        <v>5883666</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,10 +5079,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3367</v>
       </c>
       <c r="D18" s="7">
-        <v>964630</v>
+        <v>3451780</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5763,10 +5094,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1558</v>
+        <v>5349</v>
       </c>
       <c r="I18" s="7">
-        <v>1145828</v>
+        <v>3652855</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5778,10 +5109,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2563</v>
+        <v>8716</v>
       </c>
       <c r="N18" s="7">
-        <v>2110458</v>
+        <v>7104635</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5794,171 +5125,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>628</v>
-      </c>
-      <c r="D19" s="7">
-        <v>493522</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1073</v>
-      </c>
-      <c r="I19" s="7">
-        <v>714935</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1701</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1208457</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2739</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2883192</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4276</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3082661</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7015</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5965853</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3367</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3376714</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5349</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3797596</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8716</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7174310</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
